--- a/libro/input_files/ois_2021_10_14.xlsx
+++ b/libro/input_files/ois_2021_10_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t004672\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FB144-6B91-43B4-93E2-F757E788A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2BE9A-AAB9-42B7-8187-685121639AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26610" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>months</t>
   </si>
   <si>
-    <t>quote</t>
+    <t>quotes</t>
   </si>
 </sst>
 </file>
@@ -297,7 +297,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
